--- a/数据整理/stocks/A股/深证主板/000600-建投能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000600-建投能源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>85.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.39</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.69</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.86</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005616</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方量化成长灵活配置混合</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009263</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝红利精选混合A</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010841</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝红利精选混合C</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.80</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -818,25 +938,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -968,15 +1138,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004945</t>
+          <t>010841</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长信中证500指数增强</t>
+          <t>华宝红利精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000600-建投能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000600-建投能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000600-建投能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000600-建投能源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -1257,13 +1352,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000600-建投能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000600-建投能源.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,171 +453,179 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0805</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004945</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,180 +1213,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.06</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0468</t>
+          <t>0.0805</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000600-建投能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000600-建投能源.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -588,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>001468</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>广发改革先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.06</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0468</t>
+          <t>0.1487</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -626,6 +643,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1213,7 +1324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
